--- a/developer_space/table_schema.xlsx
+++ b/developer_space/table_schema.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkm21\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkm21\Desktop\personal_project\SOONNOTE\soonnote\developer_space\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8CF1E8-461B-4388-B5CB-5EAD54883AB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22847672-1D70-470F-B26F-99872D72B9B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0F0673F-4A07-4FB8-8457-9040EBAA055E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="212">
   <si>
     <t>sn_admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -704,6 +704,94 @@
   </si>
   <si>
     <t>공지우선순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table sn_board (</t>
+  </si>
+  <si>
+    <t>BOARD_NO int(10) not null auto_increment comment '게시물 번호',</t>
+  </si>
+  <si>
+    <t>BOARD_TITLE varchar(255) comment '게시물 제목',</t>
+  </si>
+  <si>
+    <t>BOARD_WRITER varchar(40) comment '게시물 작성자',</t>
+  </si>
+  <si>
+    <t>BOARD_CONTENT text comment '게시물 내용',</t>
+  </si>
+  <si>
+    <t>BOARD_DATE datetime comment '게시물 작성일',</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY(BOARD_NO)</t>
+  </si>
+  <si>
+    <t>) engine=InnoDB default charset=utf8mb4 comment '게시글 정보';</t>
+  </si>
+  <si>
+    <t>sn_board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOARD_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOARD_TITLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOARD_WRITER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOARD_CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOARD_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물 제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물 작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물 작성일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -811,7 +899,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -836,13 +924,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -855,6 +937,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1453,30 +1544,30 @@
     <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.75" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="F3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="F3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="K3" s="7" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="K3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -1546,11 +1637,11 @@
       <c r="M6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="13"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="11"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="P7" s="2" t="s">
@@ -1564,11 +1655,11 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
       <c r="P8" s="2" t="s">
         <v>174</v>
       </c>
@@ -1631,21 +1722,21 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="F13" s="7" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="F13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="K13" s="14" t="s">
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="K13" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="10"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="14"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -1673,11 +1764,11 @@
       <c r="M14" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="P14" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -1822,6 +1913,11 @@
       <c r="H19" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="K19" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="L19" s="10"/>
+      <c r="M19" s="11"/>
       <c r="P19" s="4" t="s">
         <v>144</v>
       </c>
@@ -1840,6 +1936,15 @@
         <v>30</v>
       </c>
       <c r="C20" s="2"/>
+      <c r="K20" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="P20" s="4" t="s">
         <v>145</v>
       </c>
@@ -1851,6 +1956,15 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K21" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="P21" s="4" t="s">
         <v>146</v>
       </c>
@@ -1862,6 +1976,15 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K22" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="P22" s="4" t="s">
         <v>147</v>
       </c>
@@ -1873,6 +1996,15 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K23" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="P23" s="4" t="s">
         <v>148</v>
       </c>
@@ -1884,6 +2016,15 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K24" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="P24" s="4" t="s">
         <v>149</v>
       </c>
@@ -1928,11 +2069,11 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="P30" s="11" t="s">
+      <c r="P30" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="13"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="11"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="P31" s="4" t="s">
@@ -2034,17 +2175,18 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="F13:H13"/>
     <mergeCell ref="P14:R14"/>
     <mergeCell ref="P6:R6"/>
     <mergeCell ref="P30:R30"/>
     <mergeCell ref="K13:M13"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="K19:M19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2055,9 +2197,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70049198-A20E-41AC-93ED-5698C7A35996}">
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2530,59 +2672,107 @@
         <v>127</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="7">
+        <v>11</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
